--- a/Combinado 2020/Hoja de trabajo EFE.xlsx
+++ b/Combinado 2020/Hoja de trabajo EFE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\Combinado 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F59282-AA0A-4931-A5CC-08EAB1F05BF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8715E-13C0-4509-91B0-D34A641B5501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D65CF950-DCD9-41B0-A57E-4B5AFCF0B31C}"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="10320" windowHeight="7110" xr2:uid="{D65CF950-DCD9-41B0-A57E-4B5AFCF0B31C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$95</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -241,9 +244,6 @@
     <t>Variación</t>
   </si>
   <si>
-    <t>Otros ajustes</t>
-  </si>
-  <si>
     <t>Otras variaciones netas</t>
   </si>
   <si>
@@ -331,10 +331,16 @@
     <t>PASIVOS POR ARRENDAMIENTO</t>
   </si>
   <si>
-    <t>Efecto aplicacion NIIF 9</t>
-  </si>
-  <si>
     <t>Registro contra derechos de uso</t>
+  </si>
+  <si>
+    <t>Otros resultados integrales</t>
+  </si>
+  <si>
+    <t>Bajas</t>
+  </si>
+  <si>
+    <t>Pagos de capital</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,18 +470,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFE7E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFE7E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -674,7 +668,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -832,15 +826,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1218,6 +1205,11 @@
             <v>-11609963</v>
           </cell>
         </row>
+        <row r="36">
+          <cell r="H36">
+            <v>38384505</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="10">
@@ -1238,6 +1230,11 @@
         <row r="14">
           <cell r="I14">
             <v>2412033</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>1005412</v>
           </cell>
         </row>
         <row r="16">
@@ -1276,11 +1273,6 @@
         <row r="193">
           <cell r="J193">
             <v>-21629181</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="J194">
-            <v>38245005</v>
           </cell>
         </row>
       </sheetData>
@@ -1838,10 +1830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A262A5D-CFFA-48F4-83B1-6F065EEC3553}">
-  <dimension ref="A1:AMJ115"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38:K40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2004,7 @@
         <f>+'[1]BG '!I39</f>
         <v>1479636</v>
       </c>
-      <c r="L5" s="107">
+      <c r="L5" s="31">
         <f t="shared" ref="L5:L14" si="3">+K5-M5</f>
         <v>1428860</v>
       </c>
@@ -2048,7 +2043,7 @@
         <f>+'[1]BG '!I9</f>
         <v>3119911</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="31">
         <f t="shared" si="0"/>
         <v>-3107992</v>
       </c>
@@ -2079,7 +2074,7 @@
         <f>+'[1]BG '!I40</f>
         <v>2936628</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="31">
         <f t="shared" si="3"/>
         <v>-2171744</v>
       </c>
@@ -2115,7 +2110,7 @@
         <f>+'[1]BG '!I10</f>
         <v>0</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
         <v>3358789</v>
       </c>
@@ -2146,7 +2141,7 @@
         <f>+'[1]BG '!I41</f>
         <v>6939887</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="31">
         <f t="shared" si="3"/>
         <v>4455156</v>
       </c>
@@ -2181,7 +2176,7 @@
         <f>+'[1]BG '!I12</f>
         <v>22892112</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
         <v>-10279166</v>
       </c>
@@ -2212,7 +2207,7 @@
         <f>+'[1]BG '!I43</f>
         <v>29252162</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="31">
         <f t="shared" si="3"/>
         <v>6180016</v>
       </c>
@@ -2247,7 +2242,7 @@
         <f>+'[1]BG '!I13</f>
         <v>13871709</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>12748395</v>
       </c>
@@ -2278,7 +2273,7 @@
         <f>+'[1]BG '!I44</f>
         <v>922234</v>
       </c>
-      <c r="L9" s="107">
+      <c r="L9" s="31">
         <f t="shared" si="3"/>
         <v>-3997240</v>
       </c>
@@ -2312,7 +2307,7 @@
         <f>+'[1]BG '!I15</f>
         <v>7057883</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="31">
         <f t="shared" si="0"/>
         <v>-5084041</v>
       </c>
@@ -2343,7 +2338,7 @@
         <f>+'[1]BG '!I46</f>
         <v>14847746</v>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="31">
         <f t="shared" si="3"/>
         <v>5926500</v>
       </c>
@@ -2377,7 +2372,7 @@
         <f>+'[1]BG '!I14</f>
         <v>6686510</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="31">
         <f t="shared" si="0"/>
         <v>11370538</v>
       </c>
@@ -2408,7 +2403,7 @@
         <f>+'[1]BG '!I47</f>
         <v>7311678</v>
       </c>
-      <c r="L11" s="107">
+      <c r="L11" s="31">
         <f t="shared" si="3"/>
         <v>3437587</v>
       </c>
@@ -2443,7 +2438,7 @@
         <f>+'[1]BG '!I16</f>
         <v>6241240</v>
       </c>
-      <c r="C12" s="107">
+      <c r="C12" s="31">
         <f t="shared" si="0"/>
         <v>-5493976</v>
       </c>
@@ -2474,7 +2469,7 @@
         <f>+'[1]BG '!I48</f>
         <v>5255127</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="31">
         <f t="shared" si="3"/>
         <v>3821283</v>
       </c>
@@ -2509,7 +2504,7 @@
         <f>+'[1]BG '!I17</f>
         <v>28373524</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C13" s="31">
         <f t="shared" si="0"/>
         <v>221118</v>
       </c>
@@ -2540,7 +2535,7 @@
         <f>+'[1]BG '!I50</f>
         <v>1574195</v>
       </c>
-      <c r="L13" s="107">
+      <c r="L13" s="31">
         <f t="shared" si="3"/>
         <v>-645022</v>
       </c>
@@ -2570,7 +2565,7 @@
         <f>'[1]BG '!I18</f>
         <v>413564</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C14" s="31">
         <f t="shared" si="0"/>
         <v>-413564</v>
       </c>
@@ -2590,7 +2585,7 @@
         <f>+'[1]BG '!I49</f>
         <v>13947126</v>
       </c>
-      <c r="L14" s="107">
+      <c r="L14" s="31">
         <f t="shared" si="3"/>
         <v>4193609</v>
       </c>
@@ -2768,7 +2763,7 @@
         <f>+'[1]BG '!I25</f>
         <v>4645673</v>
       </c>
-      <c r="C19" s="107">
+      <c r="C19" s="31">
         <f t="shared" ref="C19:C28" si="9">+D19-B19</f>
         <v>-4284809</v>
       </c>
@@ -2799,7 +2794,7 @@
         <f>+'[1]BG '!I55</f>
         <v>1645615</v>
       </c>
-      <c r="L19" s="107">
+      <c r="L19" s="31">
         <f t="shared" ref="L19:L27" si="10">+K19-M19</f>
         <v>-917675</v>
       </c>
@@ -2833,7 +2828,7 @@
         <f>+'[1]BG '!I24</f>
         <v>0</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="31">
         <f t="shared" si="9"/>
         <v>2077739</v>
       </c>
@@ -2864,7 +2859,7 @@
         <f>+'[1]BG '!I56</f>
         <v>6657895</v>
       </c>
-      <c r="L20" s="107">
+      <c r="L20" s="31">
         <f t="shared" si="10"/>
         <v>6657895</v>
       </c>
@@ -2901,7 +2896,7 @@
         <f>+'[1]BG '!I26</f>
         <v>62995647.061452001</v>
       </c>
-      <c r="C21" s="107">
+      <c r="C21" s="31">
         <f t="shared" si="9"/>
         <v>-16603198.061452001</v>
       </c>
@@ -2971,7 +2966,7 @@
         <f>+'[1]BG '!I27</f>
         <v>545591</v>
       </c>
-      <c r="C22" s="107">
+      <c r="C22" s="31">
         <f t="shared" si="9"/>
         <v>39210</v>
       </c>
@@ -3002,7 +2997,7 @@
         <f>+'[1]BG '!I59</f>
         <v>18563320</v>
       </c>
-      <c r="L22" s="107">
+      <c r="L22" s="31">
         <f t="shared" si="10"/>
         <v>18563320</v>
       </c>
@@ -3036,7 +3031,7 @@
         <f>+'[1]BG '!I28</f>
         <v>11493173</v>
       </c>
-      <c r="C23" s="107">
+      <c r="C23" s="31">
         <f t="shared" si="9"/>
         <v>3194415</v>
       </c>
@@ -3067,7 +3062,7 @@
         <f>+'[1]BG '!I60</f>
         <v>2286986</v>
       </c>
-      <c r="L23" s="107">
+      <c r="L23" s="31">
         <f t="shared" si="10"/>
         <v>-11358852</v>
       </c>
@@ -3101,7 +3096,7 @@
         <f>+'[1]BG '!I30</f>
         <v>1836716</v>
       </c>
-      <c r="C24" s="107">
+      <c r="C24" s="31">
         <f t="shared" si="9"/>
         <v>-163132</v>
       </c>
@@ -3133,7 +3128,7 @@
         <f>+'[1]BG '!I62</f>
         <v>9332567</v>
       </c>
-      <c r="L24" s="107">
+      <c r="L24" s="31">
         <f t="shared" si="10"/>
         <v>-428924</v>
       </c>
@@ -3167,7 +3162,7 @@
         <f>+'[1]BG '!I31</f>
         <v>42626957</v>
       </c>
-      <c r="C25" s="107">
+      <c r="C25" s="31">
         <f t="shared" si="9"/>
         <v>-3610086</v>
       </c>
@@ -3189,7 +3184,7 @@
         <f>+'[1]BG '!I61</f>
         <v>2580000</v>
       </c>
-      <c r="L25" s="107">
+      <c r="L25" s="31">
         <f t="shared" si="10"/>
         <v>-15983321</v>
       </c>
@@ -3218,7 +3213,7 @@
         <f>+'[1]BG '!I33</f>
         <v>1783584</v>
       </c>
-      <c r="C26" s="107">
+      <c r="C26" s="31">
         <f t="shared" si="9"/>
         <v>-1723057</v>
       </c>
@@ -3247,7 +3242,7 @@
         <f>+'[1]BG '!I64</f>
         <v>2542451</v>
       </c>
-      <c r="L26" s="107">
+      <c r="L26" s="31">
         <f t="shared" si="10"/>
         <v>-1181748</v>
       </c>
@@ -3281,7 +3276,7 @@
         <f>+'[1]BG '!I29</f>
         <v>3949574</v>
       </c>
-      <c r="C27" s="107">
+      <c r="C27" s="31">
         <f t="shared" si="9"/>
         <v>197533</v>
       </c>
@@ -3306,7 +3301,7 @@
         <f>+'[1]BG '!I63</f>
         <v>0</v>
       </c>
-      <c r="L27" s="107">
+      <c r="L27" s="31">
         <f t="shared" si="10"/>
         <v>-2580000</v>
       </c>
@@ -3336,7 +3331,7 @@
         <f>+'[1]BG '!I32</f>
         <v>5133423.1851480007</v>
       </c>
-      <c r="C28" s="107">
+      <c r="C28" s="31">
         <f t="shared" si="9"/>
         <v>-1571924.1851480007</v>
       </c>
@@ -3612,8 +3607,8 @@
         <v>51</v>
       </c>
       <c r="K38" s="30">
-        <f>+[1]PAT!J194</f>
-        <v>38245005</v>
+        <f>+K45</f>
+        <v>38384505</v>
       </c>
       <c r="L38" s="72"/>
       <c r="M38" s="72"/>
@@ -3625,7 +3620,7 @@
       <c r="A39" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="105">
+      <c r="B39" s="66">
         <v>-3610086</v>
       </c>
       <c r="C39" s="90"/>
@@ -3636,7 +3631,7 @@
       <c r="J39" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="104">
+      <c r="K39" s="30">
         <f>+[1]PAT!J193</f>
         <v>-21629181</v>
       </c>
@@ -3663,9 +3658,9 @@
       <c r="J40" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="K40" s="106">
-        <f>+[1]PAT!J191</f>
-        <v>2583675</v>
+      <c r="K40" s="103">
+        <f>+[1]PAT!J191-139500</f>
+        <v>2444175</v>
       </c>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
@@ -3681,7 +3676,7 @@
       <c r="F41" s="72"/>
       <c r="I41" s="4"/>
       <c r="J41" s="87" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K41" s="30">
         <v>0</v>
@@ -3694,7 +3689,7 @@
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="84"/>
       <c r="E42" s="3"/>
@@ -3716,9 +3711,9 @@
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="104">
+        <v>57</v>
+      </c>
+      <c r="B43" s="30">
         <f>+[1]EFE!I12</f>
         <v>17561314</v>
       </c>
@@ -3741,51 +3736,47 @@
       <c r="T43" s="72"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="105">
-        <f>-B43+C21</f>
-        <v>-34164512.061452001</v>
-      </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
+      <c r="A44" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="30">
+        <f>+[1]EFE!I15</f>
+        <v>1005412</v>
+      </c>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="3"/>
       <c r="F44" s="72"/>
       <c r="G44" s="3"/>
-      <c r="J44" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="52">
-        <f>+K38</f>
-        <v>38245005</v>
-      </c>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
       <c r="N44" s="3"/>
       <c r="P44" s="3"/>
       <c r="T44" s="72"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
-        <v>54</v>
+      <c r="A45" s="89" t="s">
+        <v>52</v>
       </c>
       <c r="B45" s="66">
-        <f>+B43+B44</f>
-        <v>-16603198.061452001</v>
+        <f>-B43+C21</f>
+        <v>-34164512.061452001</v>
       </c>
       <c r="C45" s="90"/>
       <c r="D45" s="90"/>
       <c r="E45" s="3"/>
       <c r="F45" s="72"/>
       <c r="G45" s="3"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="66">
-        <f>-[1]ER!H35</f>
-        <v>11609963</v>
+      <c r="J45" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="52">
+        <f>+[1]ER!H36</f>
+        <v>38384505</v>
       </c>
       <c r="L45" s="92"/>
       <c r="M45" s="92"/>
@@ -3794,54 +3785,59 @@
       <c r="T45" s="72"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="90">
-        <f>+B45-C21</f>
-        <v>0</v>
+      <c r="A46" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="66">
+        <f>+B43+B45</f>
+        <v>-16603198.061452001</v>
       </c>
       <c r="C46" s="90"/>
       <c r="D46" s="90"/>
-      <c r="F46" s="82"/>
-      <c r="J46" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="K46" s="103">
-        <f>+K44+K45</f>
-        <v>49854968</v>
+      <c r="E46" s="3"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="66">
+        <f>-[1]ER!H35</f>
+        <v>11609963</v>
       </c>
       <c r="L46" s="92"/>
       <c r="M46" s="92"/>
+      <c r="N46" s="3"/>
+      <c r="P46" s="3"/>
       <c r="T46" s="72"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="84"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="B47" s="90">
+        <f>+B46-C21</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="F47" s="82"/>
+      <c r="J47" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="104">
+        <f>+K45+K46</f>
+        <v>49994468</v>
+      </c>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
       <c r="T47" s="72"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="104">
-        <f>+[1]EFE!I14</f>
-        <v>2412033</v>
-      </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
+      <c r="A48" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="84"/>
       <c r="E48" s="3"/>
       <c r="F48" s="72"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="72"/>
       <c r="I48" s="4"/>
       <c r="K48" s="100"/>
       <c r="L48" s="72"/>
@@ -3851,32 +3847,33 @@
       <c r="T48" s="72"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
-        <v>62</v>
+      <c r="A49" s="87" t="s">
+        <v>57</v>
       </c>
       <c r="B49" s="30">
-        <v>0</v>
-      </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
+        <f>+[1]EFE!I14</f>
+        <v>2412033</v>
+      </c>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
       <c r="E49" s="3"/>
       <c r="F49" s="72"/>
       <c r="G49" s="3"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="4"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
       <c r="N49" s="3"/>
       <c r="P49" s="3"/>
       <c r="T49" s="72"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="105">
-        <f>+C27-B48-B49</f>
-        <v>-2214500</v>
+        <v>61</v>
+      </c>
+      <c r="B50" s="30">
+        <v>0</v>
       </c>
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
@@ -3892,19 +3889,18 @@
       <c r="T50" s="72"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="93" t="s">
-        <v>54</v>
+      <c r="A51" s="89" t="s">
+        <v>62</v>
       </c>
       <c r="B51" s="66">
-        <f>SUM(B48:B50)</f>
-        <v>197533</v>
+        <f>+C27-B49-B50</f>
+        <v>-2214500</v>
       </c>
       <c r="C51" s="90"/>
       <c r="D51" s="90"/>
       <c r="E51" s="3"/>
       <c r="F51" s="72"/>
       <c r="G51" s="3"/>
-      <c r="I51" s="4"/>
       <c r="J51" s="92"/>
       <c r="K51" s="2"/>
       <c r="L51" s="92"/>
@@ -3914,9 +3910,12 @@
       <c r="T51" s="72"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="90">
-        <f>+C27-B51</f>
-        <v>0</v>
+      <c r="A52" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="66">
+        <f>SUM(B49:B51)</f>
+        <v>197533</v>
       </c>
       <c r="C52" s="90"/>
       <c r="D52" s="90"/>
@@ -3933,10 +3932,10 @@
       <c r="T52" s="72"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="84"/>
+      <c r="B53" s="90">
+        <f>+C27-B52</f>
+        <v>0</v>
+      </c>
       <c r="C53" s="90"/>
       <c r="D53" s="90"/>
       <c r="E53" s="3"/>
@@ -3952,51 +3951,48 @@
       <c r="T53" s="72"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="104">
-        <f>+[1]EFE!I19</f>
-        <v>1240038</v>
-      </c>
+      <c r="A54" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="84"/>
       <c r="C54" s="90"/>
       <c r="D54" s="90"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="3"/>
       <c r="I54" s="4"/>
       <c r="J54" s="92"/>
       <c r="K54" s="2"/>
       <c r="L54" s="92"/>
       <c r="M54" s="92"/>
+      <c r="N54" s="3"/>
+      <c r="P54" s="3"/>
       <c r="T54" s="72"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="105">
-        <f>-B54+L24</f>
-        <v>-1668962</v>
+      <c r="A55" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="30">
+        <f>+[1]EFE!I19</f>
+        <v>1240038</v>
       </c>
       <c r="C55" s="90"/>
       <c r="D55" s="90"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="3"/>
       <c r="I55" s="4"/>
       <c r="J55" s="92"/>
       <c r="K55" s="2"/>
       <c r="L55" s="92"/>
       <c r="M55" s="92"/>
-      <c r="N55" s="3"/>
-      <c r="P55" s="3"/>
       <c r="T55" s="72"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="93" t="s">
-        <v>54</v>
+      <c r="A56" s="89" t="s">
+        <v>65</v>
       </c>
       <c r="B56" s="66">
-        <f>+B54+B55</f>
-        <v>-428924</v>
+        <f>-B55+L24</f>
+        <v>-1668962</v>
       </c>
       <c r="C56" s="90"/>
       <c r="D56" s="90"/>
@@ -4013,9 +4009,12 @@
       <c r="T56" s="72"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="90">
-        <f>+B56-L24</f>
-        <v>0</v>
+      <c r="A57" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="66">
+        <f>+B55+B56</f>
+        <v>-428924</v>
       </c>
       <c r="C57" s="90"/>
       <c r="D57" s="90"/>
@@ -4032,10 +4031,10 @@
       <c r="T57" s="72"/>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="90">
+        <f>+B57-L24</f>
+        <v>0</v>
+      </c>
       <c r="C58" s="90"/>
       <c r="D58" s="90"/>
       <c r="E58" s="3"/>
@@ -4051,18 +4050,16 @@
       <c r="T58" s="72"/>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="104">
-        <f>+[1]EFE!I16</f>
-        <v>2433193</v>
-      </c>
+      <c r="A59" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="84"/>
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="3"/>
       <c r="F59" s="72"/>
       <c r="G59" s="3"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="92"/>
       <c r="K59" s="2"/>
       <c r="L59" s="92"/>
@@ -4072,12 +4069,12 @@
       <c r="T59" s="72"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="105">
-        <f>-B59+C23</f>
-        <v>761222</v>
+      <c r="A60" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="30">
+        <f>+[1]EFE!I16</f>
+        <v>2433193</v>
       </c>
       <c r="C60" s="90"/>
       <c r="D60" s="90"/>
@@ -4093,26 +4090,33 @@
       <c r="T60" s="72"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="93" t="s">
-        <v>54</v>
+      <c r="A61" s="89" t="s">
+        <v>52</v>
       </c>
       <c r="B61" s="66">
-        <f>+B59+B60</f>
-        <v>3194415</v>
+        <f>-B60+C23</f>
+        <v>761222</v>
       </c>
       <c r="C61" s="90"/>
       <c r="D61" s="90"/>
-      <c r="F61" s="92"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="3"/>
       <c r="J61" s="92"/>
       <c r="K61" s="2"/>
       <c r="L61" s="92"/>
       <c r="M61" s="92"/>
+      <c r="N61" s="3"/>
+      <c r="P61" s="3"/>
       <c r="T61" s="72"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="90">
-        <f>+B61-C23</f>
-        <v>0</v>
+      <c r="A62" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="66">
+        <f>+B60+B61</f>
+        <v>3194415</v>
       </c>
       <c r="C62" s="90"/>
       <c r="D62" s="90"/>
@@ -4124,12 +4128,13 @@
       <c r="T62" s="72"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="84"/>
+      <c r="B63" s="90">
+        <f>+B62-C23</f>
+        <v>0</v>
+      </c>
       <c r="C63" s="90"/>
       <c r="D63" s="90"/>
+      <c r="F63" s="92"/>
       <c r="J63" s="92"/>
       <c r="K63" s="2"/>
       <c r="L63" s="92"/>
@@ -4137,13 +4142,10 @@
       <c r="T63" s="72"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="104">
-        <f>+[1]EFE!I13</f>
-        <v>39210</v>
-      </c>
+      <c r="A64" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="84"/>
       <c r="C64" s="90"/>
       <c r="D64" s="90"/>
       <c r="J64" s="92"/>
@@ -4153,25 +4155,28 @@
       <c r="T64" s="72"/>
     </row>
     <row r="65" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="66">
-        <f>-B64+C22</f>
-        <v>0</v>
+      <c r="A65" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="30">
+        <f>+[1]EFE!I13</f>
+        <v>39210</v>
       </c>
       <c r="C65" s="90"/>
       <c r="D65" s="90"/>
+      <c r="J65" s="92"/>
       <c r="K65" s="2"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92"/>
       <c r="T65" s="72"/>
     </row>
     <row r="66" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="93" t="s">
-        <v>71</v>
+      <c r="A66" s="89" t="s">
+        <v>52</v>
       </c>
       <c r="B66" s="66">
-        <f>+B64+B65</f>
-        <v>39210</v>
+        <f>-B65+C22</f>
+        <v>0</v>
       </c>
       <c r="C66" s="90"/>
       <c r="D66" s="90"/>
@@ -4179,9 +4184,12 @@
       <c r="T66" s="72"/>
     </row>
     <row r="67" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="90">
-        <f>+B66-C22</f>
-        <v>0</v>
+      <c r="A67" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="66">
+        <f>+B65+B66</f>
+        <v>39210</v>
       </c>
       <c r="C67" s="90"/>
       <c r="D67" s="90"/>
@@ -4189,266 +4197,274 @@
       <c r="T67" s="72"/>
     </row>
     <row r="68" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="52"/>
+      <c r="B68" s="90">
+        <f>+B67-C22</f>
+        <v>0</v>
+      </c>
       <c r="C68" s="90"/>
       <c r="D68" s="90"/>
       <c r="K68" s="2"/>
       <c r="T68" s="72"/>
     </row>
     <row r="69" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="30">
+      <c r="A69" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="52"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="K69" s="2"/>
+      <c r="T69" s="72"/>
+    </row>
+    <row r="70" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="30">
         <f>-[1]ER!H35</f>
         <v>11609963</v>
       </c>
-      <c r="K69" s="2"/>
-      <c r="T69" s="72"/>
-    </row>
-    <row r="70" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="104">
+      <c r="K70" s="2"/>
+      <c r="T70" s="72"/>
+    </row>
+    <row r="71" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="30">
         <f>+[1]EFE!I43</f>
         <v>-8327309</v>
       </c>
-      <c r="K70" s="2"/>
-      <c r="T70" s="72"/>
-    </row>
-    <row r="71" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="108">
-        <f>-B69-B70+L10</f>
-        <v>2643846</v>
-      </c>
       <c r="K71" s="2"/>
       <c r="T71" s="72"/>
     </row>
     <row r="72" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="93" t="s">
-        <v>71</v>
+      <c r="A72" s="89" t="s">
+        <v>74</v>
       </c>
       <c r="B72" s="101">
-        <f>SUM(B69:B71)</f>
-        <v>5926500</v>
+        <f>-B70-B71+L10</f>
+        <v>2643846</v>
       </c>
       <c r="K72" s="2"/>
       <c r="T72" s="72"/>
     </row>
     <row r="73" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="42">
-        <f>+B72-L10</f>
-        <v>0</v>
+      <c r="A73" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="101">
+        <f>SUM(B70:B72)</f>
+        <v>5926500</v>
       </c>
       <c r="K73" s="2"/>
       <c r="T73" s="72"/>
     </row>
     <row r="74" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="52"/>
+      <c r="B74" s="42">
+        <f>+B73-L10</f>
+        <v>0</v>
+      </c>
       <c r="K74" s="2"/>
       <c r="T74" s="72"/>
     </row>
     <row r="75" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="104">
+      <c r="A75" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="52"/>
+      <c r="K75" s="2"/>
+      <c r="T75" s="72"/>
+    </row>
+    <row r="76" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="30">
         <f>-[1]ER!H34</f>
         <v>8253264</v>
       </c>
-      <c r="K75" s="2"/>
-      <c r="T75" s="72"/>
-    </row>
-    <row r="76" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="109">
+      <c r="K76" s="2"/>
+      <c r="T76" s="72"/>
+    </row>
+    <row r="77" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="47">
         <f>+[1]EFE!I44</f>
         <v>-3976474</v>
       </c>
-      <c r="K76" s="2"/>
-      <c r="T76" s="72"/>
-    </row>
-    <row r="77" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="108">
-        <f>-B75-B76+L14</f>
-        <v>-83181</v>
-      </c>
       <c r="K77" s="2"/>
       <c r="T77" s="72"/>
     </row>
     <row r="78" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="93" t="s">
-        <v>71</v>
+      <c r="A78" s="89" t="s">
+        <v>74</v>
       </c>
       <c r="B78" s="101">
-        <f>SUM(B75:B77)</f>
-        <v>4193609</v>
+        <f>-B76-B77+L14</f>
+        <v>-83181</v>
       </c>
       <c r="K78" s="2"/>
       <c r="T78" s="72"/>
     </row>
     <row r="79" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="42">
-        <f>+B78-L14</f>
-        <v>0</v>
+      <c r="A79" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="101">
+        <f>SUM(B76:B78)</f>
+        <v>4193609</v>
       </c>
       <c r="K79" s="2"/>
       <c r="T79" s="72"/>
     </row>
     <row r="80" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="84"/>
+      <c r="B80" s="42">
+        <f>+B79-L14</f>
+        <v>0</v>
+      </c>
       <c r="K80" s="2"/>
       <c r="T80" s="72"/>
     </row>
     <row r="81" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="104">
+      <c r="A81" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="84"/>
+      <c r="K81" s="2"/>
+      <c r="T81" s="72"/>
+    </row>
+    <row r="82" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="30">
         <f>+[1]EFE!I10</f>
         <v>697211</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="T81" s="72"/>
-    </row>
-    <row r="82" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="105">
-        <f>-B81+C8</f>
-        <v>-10976377</v>
-      </c>
       <c r="K82" s="2"/>
       <c r="T82" s="72"/>
     </row>
     <row r="83" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="93" t="s">
-        <v>71</v>
+      <c r="A83" s="89" t="s">
+        <v>80</v>
       </c>
       <c r="B83" s="66">
-        <f>+B81+B82</f>
-        <v>-10279166</v>
+        <f>-B82+C8</f>
+        <v>-10976377</v>
       </c>
       <c r="K83" s="2"/>
       <c r="T83" s="72"/>
     </row>
     <row r="84" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="90">
-        <f>+B83-C8</f>
-        <v>0</v>
+      <c r="A84" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="66">
+        <f>+B82+B83</f>
+        <v>-10279166</v>
       </c>
       <c r="K84" s="2"/>
       <c r="T84" s="72"/>
     </row>
     <row r="85" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="84"/>
+      <c r="B85" s="90">
+        <f>+B84-C8</f>
+        <v>0</v>
+      </c>
       <c r="K85" s="2"/>
       <c r="T85" s="72"/>
     </row>
     <row r="86" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="104">
+      <c r="A86" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="84"/>
+      <c r="K86" s="2"/>
+      <c r="T86" s="72"/>
+    </row>
+    <row r="87" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="30">
         <f>+[1]EFE!I22</f>
         <v>1571924</v>
       </c>
-      <c r="K86" s="2"/>
-      <c r="T86" s="72"/>
-    </row>
-    <row r="87" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="105">
-        <f>-B86+C28</f>
+      <c r="K87" s="2"/>
+      <c r="T87" s="72"/>
+    </row>
+    <row r="88" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="66">
+        <f>-B87+C28</f>
         <v>-3143848.1851480007</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" s="66">
-        <f>+B86+B87</f>
+    <row r="89" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="66">
+        <f>+B87+B88</f>
         <v>-1571924.1851480007</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="100">
-        <f>+B88-C28</f>
+    <row r="90" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="100">
+        <f>+B89-C28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="84"/>
-    </row>
     <row r="91" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" s="30">
-        <v>0</v>
-      </c>
+      <c r="A91" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="84"/>
     </row>
     <row r="92" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B92" s="30">
+        <v>-1307540</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="66">
-        <f>+L13+L26-B92</f>
+    <row r="94" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="66">
+        <v>-519230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="66">
+        <f>SUM(B92:B94)</f>
         <v>-1826770</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" s="66">
-        <f>SUM(B91:B93)</f>
-        <v>-1826770</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="100">
-        <f>+B94-L13-L26</f>
+    <row r="96" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="100">
+        <f>+B95-L13-L26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4468,7 +4484,12 @@
     <row r="113" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="12" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>